--- a/Output_testing/R1_201907/Country/HKD/MN/ARMENIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/ARMENIA_201907_HKD_MN.xlsx
@@ -544,17 +544,23 @@
       <c r="C7" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="D7" s="8" t="n">
-        <v>0.332538</v>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="E7" s="8" t="n">
         <v>0.537687</v>
       </c>
-      <c r="F7" s="8" t="n">
-        <v>0.131164</v>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>1.5e-05</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H7" s="9" t="n">
         <v>61.69189686592209</v>
@@ -564,7 +570,7 @@
       </c>
       <c r="J7" s="9" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>∞</t>
         </is>
       </c>
     </row>
@@ -632,8 +638,10 @@
       <c r="I9" s="9" t="n">
         <v>22.69876024081867</v>
       </c>
-      <c r="J9" s="9" t="n">
-        <v>1006.338227090086</v>
+      <c r="J9" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
     <row r="10">

--- a/Output_testing/R1_201907/Country/HKD/MN/ARMENIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/ARMENIA_201907_HKD_MN.xlsx
@@ -820,136 +820,465 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>10.499439</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>8.971911571225194</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>40.752656</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>27.59899733113079</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>78.299806</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>35.54597207141061</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>78.12841299999999</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>56.41423900053976</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>81.88241390173243</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>67.53134799999999</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>57.70644341489439</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>48.800455</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>33.04922327769185</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>74.411895</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>33.78096672999086</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>30.869721</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>22.29012150002306</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-25.01618652099482</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>16.589645</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>14.17607435387911</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>20.059993</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>13.58526652273909</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>22.605585</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>10.26231780277845</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>16.336191</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>11.79588510818038</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>32.54662282683201</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>1.147481</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0.9805379184222183</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>1.155565</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0.7825854430432254</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>1.865161</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0.8467321210819384</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>3.124208</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>2.255899102921728</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>337.1863529694928</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0.1903411561957996</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>1.318995</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0.8932654471594406</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>0.901956</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>0.4094633744768311</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>2.388788</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>1.724873858037042</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>293.4395665027876</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>6.147198</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>5.252863211721347</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>8.443834000000001</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>5.718433469232323</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>15.227869</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>6.913036364114356</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>1.526799</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>1.102456844884141</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-80.01222465080281</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD, CUT TO SIZE OR SHAPE, AND ARTICLES OF PAPER OR PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>0.843637</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.7208991415840131</v>
+      </c>
+      <c r="E24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.315739718528214</v>
+      </c>
+      <c r="G24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.1252524218568102</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>0.526481</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0.3801565118600728</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>148.0908332665765</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.1974131092938136</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>0.814607</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.5516778199418576</v>
+      </c>
+      <c r="G25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.2202321301182644</v>
+      </c>
+      <c r="I25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.3235490561232424</v>
+      </c>
+      <c r="K25" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>0.688446</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.5882863487814635</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>2.671415</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.809167369492255</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>4.233201</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.921757565001725</v>
+      </c>
+      <c r="I26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.3017432426149441</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-89.57991876602556</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>762</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>RADIO-BROADCAST RECEIVERS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F27" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G27" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H27" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.2960309411922432</v>
+      </c>
+      <c r="K27" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>13.124697</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>11.21522977400265</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>23.125608</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>15.66139869442563</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>21.971079</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>9.97426941917016</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>4.314044</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>3.11504483362339</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-72.72739973833995</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -981,136 +1310,611 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>2.586170603058898</v>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>2.800886017329785</v>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="K31" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>88.96366731020214</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>0.520667</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>96.83458964044137</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>0.3645243422288432</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>5.412915215704672</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>3.037246871034288</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>037</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>FISH, CRUSTACEANS, MOLLUSCS AND OTHER AQUATIC INVERTEBRATES, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>061</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>SUGARS, MOLASSES, AND HONEY</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1142,136 +1946,465 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>10.499439</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>8.997478643236265</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>40.752656</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>27.69986327286996</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>78.299806</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>35.56715048543626</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>78.12841299999999</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>56.4142451108009</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>81.88241390173243</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>67.53134799999999</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>57.87088828069349</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>48.800455</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>33.17000813772341</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>74.411895</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>33.80109354768365</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>30.869721</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>22.29012391427991</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-25.01618652099482</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>16.589645</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>14.21647162161439</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>20.059993</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>13.63491654027969</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>22.605585</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>10.26843212748599</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>16.336191</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>11.7958863858</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>32.54662282683201</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>1.147481</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>0.9833321371760333</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>1.155565</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0.7854455548348547</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>1.865161</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>0.8472366070302495</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>3.124208</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>2.255899347259557</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>337.1863529694928</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>0.1908835674766615</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>1.318995</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>0.8965300607057146</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>0.901956</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>0.4097073341821835</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>2.388788</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>1.724874044859197</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>293.4395665027876</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>6.147198</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>5.267832188057351</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>8.443834000000001</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>5.739332604451858</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>15.227869</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>6.917155175269651</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>1.526799</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>1.102456964291924</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-80.01222465080281</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD, CUT TO SIZE OR SHAPE, AND ARTICLES OF PAPER OR PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>0.843637</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.7229534730516473</v>
+      </c>
+      <c r="E50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.3168936511755382</v>
+      </c>
+      <c r="G50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.1253270476862142</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>0.526481</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>0.38015655303506</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>148.0908332665765</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.1979756733740741</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>0.814607</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.5536940345955066</v>
+      </c>
+      <c r="G51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.2203633451888221</v>
+      </c>
+      <c r="I51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.3235490911670408</v>
+      </c>
+      <c r="K51" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>0.688446</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.5899627762989466</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>2.671415</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.815779326017276</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>4.233201</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.922902554855618</v>
+      </c>
+      <c r="I52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.3017432752969415</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-89.57991876602556</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>762</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>RADIO-BROADCAST RECEIVERS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F53" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G53" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H53" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.2960309732555376</v>
+      </c>
+      <c r="K53" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>12.792159</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>10.96222163902115</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>22.587921</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>15.35316675601188</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>21.839915</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>9.920631775181366</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>4.314029</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>3.115034339953933</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-72.72749456560736</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1303,136 +2436,553 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>61.833381</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>14.28211222649856</v>
+      </c>
+      <c r="E57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>3.488967</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>37.1164846303428</v>
+      </c>
+      <c r="K57" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>0.553708</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>22.31461745512255</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>0.943194</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>30.97915036052249</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>2.30377</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>24.50806894901696</v>
+      </c>
+      <c r="K58" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>3.871129203274483</v>
+      </c>
+      <c r="G59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>3.158730726999756</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>1.645728</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>17.50765714256535</v>
+      </c>
+      <c r="K59" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>HOUSEHOLD TYPE, ELECTRICAL AND NON-ELECTRICAL EQUIPMENT, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>2.463370501762296</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>1.2796</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>13.61269789395734</v>
+      </c>
+      <c r="K60" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>0.56521</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>0.1305507239130147</v>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>4.931753399030938</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>0.908357</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>29.83493118492391</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>0.513714</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>5.465015228115349</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-4.309761926493572</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>WORKS OF ART, COLLECTORS' PIECES AND ANTIQUES</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>1.063824468111702</v>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>073</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>CHOCOLATE AND OTHER FOOD PREPARATIONS CONTAINING COCOA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>0.3721577136795167</v>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>1.763179922051094</v>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>1.09252124000159</v>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.1934458412814319</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-22.68707482993197</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>FURNITURE AND PARTS THEREOF; BEDDING, MATTRESSES, MATTRESS SUPPORTS, CUSHIONS AND SIMILAR STUFFED FURNISHINGS</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.1399035558013699</v>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>PLATES, SHEETS, FILM, FOIL AND STRIP, OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>370.202181</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>85.50832915859046</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>1.665478</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>67.11932002052093</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>0.9886239999999999</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>32.47129598578996</v>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
